--- a/InterfaceTest/project_tree/TSA-IPPS-QZ/case_file/BQ_JC_QZ_CASE.xlsx
+++ b/InterfaceTest/project_tree/TSA-IPPS-QZ/case_file/BQ_JC_QZ_CASE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="607">
   <si>
     <t>说明：[是否运行-IsRun-0-String-no-nb]
 是否运行：中文参数名
@@ -856,6 +856,9 @@
     <t>http://39.107.66.190:9992/v2/api/confirm/callback</t>
   </si>
   <si>
+    <t>李明</t>
+  </si>
+  <si>
     <t>BQ_QZ_002</t>
   </si>
   <si>
@@ -875,9 +878,6 @@
   </si>
   <si>
     <t>必传参数-callbackUrl为 null-其它参数正确传入</t>
-  </si>
-  <si>
-    <t>李明</t>
   </si>
   <si>
     <t xml:space="preserve"> null</t>
@@ -3264,9 +3264,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3368,14 +3368,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3389,54 +3428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3451,8 +3443,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3466,21 +3481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -3488,11 +3488,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3529,19 +3529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3559,13 +3547,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3577,13 +3631,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3595,91 +3697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3691,25 +3709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3756,17 +3756,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3776,21 +3770,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3806,6 +3785,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3836,11 +3830,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3849,124 +3849,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3975,19 +3975,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -25756,12 +25756,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y16384"/>
+  <dimension ref="A1:Y16385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -25942,13 +25942,13 @@
         <v>27</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>265</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>31</v>
@@ -25969,15 +25969,15 @@
         <v>43</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="M4" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="M4" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="35" t="s">
         <v>271</v>
       </c>
       <c r="O4" s="27"/>
@@ -25992,18 +25992,18 @@
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
     </row>
-    <row r="5" customFormat="1" ht="51" customHeight="1" spans="1:25">
+    <row r="5" s="20" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A5" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>31</v>
@@ -26012,7 +26012,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>268</v>
@@ -26024,41 +26024,41 @@
         <v>43</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M5" s="36" t="s">
         <v>270</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="36"/>
+        <v>271</v>
+      </c>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
     </row>
     <row r="6" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A6" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>31</v>
@@ -26079,16 +26079,16 @@
         <v>43</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M6" s="36" t="s">
         <v>270</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="36"/>
@@ -26107,13 +26107,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>31</v>
@@ -26122,7 +26122,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>268</v>
@@ -26134,41 +26134,41 @@
         <v>43</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="M7" s="36" t="s">
         <v>270</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O7" s="30"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
     </row>
     <row r="8" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A8" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>265</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>31</v>
@@ -26189,10 +26189,10 @@
         <v>43</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M8" s="36" t="s">
         <v>270</v>
@@ -26217,13 +26217,13 @@
         <v>27</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>265</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>31</v>
@@ -26244,10 +26244,10 @@
         <v>43</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M9" s="36" t="s">
         <v>270</v>
@@ -26267,18 +26267,18 @@
       <c r="X9" s="41"/>
       <c r="Y9" s="41"/>
     </row>
-    <row r="10" s="21" customFormat="1" ht="51" customHeight="1" spans="1:25">
+    <row r="10" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A10" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>265</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>31</v>
@@ -26299,41 +26299,41 @@
         <v>43</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>295</v>
+        <v>275</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="N10" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="37"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="36"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="51" customHeight="1" spans="1:25">
+    <row r="11" s="21" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A11" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>265</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>31</v>
@@ -26354,50 +26354,50 @@
         <v>43</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>279</v>
+        <v>275</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>272</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="36"/>
+        <v>271</v>
+      </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="37"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
     </row>
-    <row r="12" s="20" customFormat="1" ht="51" customHeight="1" spans="1:25">
+    <row r="12" s="1" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A12" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>268</v>
@@ -26406,44 +26406,44 @@
         <v>42</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="M12" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="M12" s="27" t="s">
         <v>270</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+        <v>298</v>
+      </c>
+      <c r="O12" s="30"/>
+      <c r="P12" s="36"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
     </row>
     <row r="13" s="20" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A13" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>31</v>
@@ -26458,16 +26458,16 @@
         <v>268</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M13" s="36" t="s">
         <v>270</v>
@@ -26492,13 +26492,13 @@
         <v>27</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>31</v>
@@ -26513,16 +26513,16 @@
         <v>268</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="J14" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M14" s="36" t="s">
         <v>270</v>
@@ -26530,7 +26530,7 @@
       <c r="N14" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="O14" s="30"/>
+      <c r="O14" s="27"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -26547,13 +26547,13 @@
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>31</v>
@@ -26568,16 +26568,16 @@
         <v>268</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M15" s="36" t="s">
         <v>270</v>
@@ -26602,13 +26602,13 @@
         <v>27</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>31</v>
@@ -26623,16 +26623,16 @@
         <v>268</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>309</v>
+        <v>100</v>
       </c>
       <c r="J16" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M16" s="36" t="s">
         <v>270</v>
@@ -26657,13 +26657,13 @@
         <v>27</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>31</v>
@@ -26678,16 +26678,16 @@
         <v>268</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M17" s="36" t="s">
         <v>270</v>
@@ -26712,13 +26712,13 @@
         <v>27</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>31</v>
@@ -26736,13 +26736,13 @@
         <v>42</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M18" s="36" t="s">
         <v>270</v>
@@ -26767,13 +26767,13 @@
         <v>27</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>31</v>
@@ -26791,13 +26791,13 @@
         <v>42</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>316</v>
+        <v>110</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L19" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M19" s="36" t="s">
         <v>270</v>
@@ -26817,73 +26817,73 @@
       <c r="X19" s="30"/>
       <c r="Y19" s="30"/>
     </row>
-    <row r="20" s="22" customFormat="1" ht="51" customHeight="1" spans="1:25">
-      <c r="A20" s="28" t="s">
+    <row r="20" s="20" customFormat="1" ht="51" customHeight="1" spans="1:25">
+      <c r="A20" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="E20" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="H20" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="M20" s="38" t="s">
+      <c r="J20" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M20" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="N20" s="28" t="s">
+      <c r="N20" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
     </row>
     <row r="21" s="22" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A21" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="C21" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>265</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>31</v>
@@ -26904,10 +26904,10 @@
         <v>43</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="L21" s="32" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M21" s="38" t="s">
         <v>270</v>
@@ -26932,13 +26932,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>265</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>31</v>
@@ -26953,25 +26953,25 @@
         <v>268</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="L22" s="32" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M22" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="28" t="s">
         <v>271</v>
       </c>
       <c r="O22" s="32"/>
-      <c r="P22" s="28"/>
+      <c r="P22" s="32"/>
       <c r="Q22" s="28"/>
       <c r="R22" s="28"/>
       <c r="S22" s="32"/>
@@ -26982,105 +26982,105 @@
       <c r="X22" s="32"/>
       <c r="Y22" s="32"/>
     </row>
-    <row r="23" s="23" customFormat="1" ht="51" customHeight="1" spans="1:25">
-      <c r="A23" s="27" t="s">
+    <row r="23" s="22" customFormat="1" ht="51" customHeight="1" spans="1:25">
+      <c r="A23" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="E23" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="27" t="s">
+      <c r="G23" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="N23" s="29" t="s">
+      <c r="K23" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="N23" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="O23" s="33"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
     </row>
     <row r="24" s="23" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A24" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="E24" s="27"/>
+      <c r="D24" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="F24" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="L24" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="M24" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="N24" s="27" t="s">
+      <c r="L24" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="N24" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="O24" s="31" t="s">
-        <v>329</v>
-      </c>
+      <c r="O24" s="33"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
@@ -27097,44 +27097,44 @@
         <v>27</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29" t="s">
+      <c r="D25" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="27" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="29" t="s">
+      <c r="K25" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="L25" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="M25" s="40" t="s">
+      <c r="L25" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M25" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="N25" s="29" t="s">
+      <c r="N25" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="O25" s="33" t="s">
-        <v>332</v>
+      <c r="O25" s="31" t="s">
+        <v>329</v>
       </c>
       <c r="P25" s="29"/>
       <c r="Q25" s="27"/>
@@ -27152,13 +27152,13 @@
         <v>27</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29" t="s">
@@ -27180,7 +27180,7 @@
         <v>179</v>
       </c>
       <c r="L26" s="33" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M26" s="40" t="s">
         <v>270</v>
@@ -27189,7 +27189,7 @@
         <v>271</v>
       </c>
       <c r="O26" s="33" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P26" s="29"/>
       <c r="Q26" s="27"/>
@@ -27202,49 +27202,49 @@
       <c r="X26" s="30"/>
       <c r="Y26" s="30"/>
     </row>
-    <row r="27" s="20" customFormat="1" ht="51" customHeight="1" spans="1:25">
+    <row r="27" s="23" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A27" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27" t="s">
+      <c r="D27" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="29" t="s">
         <v>33</v>
       </c>
       <c r="H27" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="L27" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="M27" s="36" t="s">
+      <c r="L27" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="M27" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="N27" s="27" t="s">
+      <c r="N27" s="29" t="s">
         <v>271</v>
       </c>
       <c r="O27" s="33" t="s">
-        <v>176</v>
+        <v>335</v>
       </c>
       <c r="P27" s="29"/>
       <c r="Q27" s="27"/>
@@ -27262,19 +27262,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="C28" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>31</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="E28" s="27"/>
       <c r="F28" s="27" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="G28" s="27" t="s">
         <v>33</v>
@@ -27283,16 +27281,16 @@
         <v>268</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>340</v>
+        <v>179</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M28" s="36" t="s">
         <v>270</v>
@@ -27300,8 +27298,10 @@
       <c r="N28" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="O28" s="30"/>
-      <c r="P28" s="27"/>
+      <c r="O28" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="P28" s="29"/>
       <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
       <c r="S28" s="30"/>
@@ -27317,13 +27317,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E29" s="27" t="s">
         <v>31</v>
@@ -27344,10 +27344,10 @@
         <v>43</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L29" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M29" s="36" t="s">
         <v>270</v>
@@ -27372,19 +27372,19 @@
         <v>27</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E30" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>346</v>
+        <v>113</v>
       </c>
       <c r="G30" s="27" t="s">
         <v>33</v>
@@ -27399,10 +27399,10 @@
         <v>43</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>274</v>
+        <v>343</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
       <c r="M30" s="36" t="s">
         <v>270</v>
@@ -27427,19 +27427,19 @@
         <v>27</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E31" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G31" s="27" t="s">
         <v>33</v>
@@ -27454,13 +27454,13 @@
         <v>43</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31" s="30" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>351</v>
+        <v>270</v>
       </c>
       <c r="N31" s="27" t="s">
         <v>271</v>
@@ -27482,19 +27482,19 @@
         <v>27</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E32" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="G32" s="27" t="s">
         <v>33</v>
@@ -27509,16 +27509,16 @@
         <v>43</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L32" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>270</v>
+        <v>351</v>
       </c>
       <c r="N32" s="27" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="O32" s="30"/>
       <c r="P32" s="27"/>
@@ -27532,24 +27532,24 @@
       <c r="X32" s="30"/>
       <c r="Y32" s="30"/>
     </row>
-    <row r="33" s="23" customFormat="1" ht="51" customHeight="1" spans="1:25">
+    <row r="33" s="20" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A33" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E33" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>33</v>
@@ -27564,20 +27564,18 @@
         <v>43</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L33" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M33" s="36" t="s">
         <v>270</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="O33" s="30" t="s">
-        <v>357</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="O33" s="30"/>
       <c r="P33" s="27"/>
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
@@ -27594,7 +27592,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>76</v>
@@ -27621,10 +27619,10 @@
         <v>43</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L34" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M34" s="36" t="s">
         <v>270</v>
@@ -27632,8 +27630,8 @@
       <c r="N34" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="O34" s="27" t="s">
-        <v>359</v>
+      <c r="O34" s="30" t="s">
+        <v>357</v>
       </c>
       <c r="P34" s="27"/>
       <c r="Q34" s="27"/>
@@ -27651,13 +27649,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E35" s="27" t="s">
         <v>31</v>
@@ -27678,10 +27676,10 @@
         <v>43</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L35" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M35" s="36" t="s">
         <v>270</v>
@@ -27690,7 +27688,7 @@
         <v>271</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
@@ -27708,13 +27706,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E36" s="27" t="s">
         <v>31</v>
@@ -27735,10 +27733,10 @@
         <v>43</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L36" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M36" s="36" t="s">
         <v>270</v>
@@ -27747,7 +27745,7 @@
         <v>271</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P36" s="27"/>
       <c r="Q36" s="27"/>
@@ -27760,24 +27758,24 @@
       <c r="X36" s="30"/>
       <c r="Y36" s="30"/>
     </row>
-    <row r="37" customFormat="1" ht="51" customHeight="1" spans="1:25">
+    <row r="37" s="23" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A37" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E37" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G37" s="27" t="s">
         <v>33</v>
@@ -27786,16 +27784,16 @@
         <v>268</v>
       </c>
       <c r="I37" s="27" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="J37" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L37" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M37" s="36" t="s">
         <v>270</v>
@@ -27803,36 +27801,38 @@
       <c r="N37" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
+      <c r="O37" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
     </row>
     <row r="38" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A38" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E38" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G38" s="27" t="s">
         <v>33</v>
@@ -27841,16 +27841,16 @@
         <v>268</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L38" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M38" s="36" t="s">
         <v>270</v>
@@ -27875,19 +27875,19 @@
         <v>27</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E39" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G39" s="27" t="s">
         <v>33</v>
@@ -27899,13 +27899,13 @@
         <v>42</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="L39" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M39" s="36" t="s">
         <v>270</v>
@@ -27930,19 +27930,19 @@
         <v>27</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E40" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>374</v>
+        <v>193</v>
       </c>
       <c r="G40" s="27" t="s">
         <v>33</v>
@@ -27957,10 +27957,10 @@
         <v>43</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="L40" s="30" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="M40" s="36" t="s">
         <v>270</v>
@@ -27985,19 +27985,19 @@
         <v>27</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E41" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>33</v>
@@ -28012,13 +28012,13 @@
         <v>43</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L41" s="30" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="M41" s="36" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="N41" s="27" t="s">
         <v>271</v>
@@ -28040,19 +28040,19 @@
         <v>27</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E42" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="G42" s="27" t="s">
         <v>33</v>
@@ -28067,16 +28067,16 @@
         <v>43</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L42" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M42" s="36" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="O42" s="30"/>
       <c r="P42" s="30"/>
@@ -28090,24 +28090,24 @@
       <c r="X42" s="36"/>
       <c r="Y42" s="36"/>
     </row>
-    <row r="43" s="24" customFormat="1" ht="51" customHeight="1" spans="1:25">
+    <row r="43" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A43" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E43" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G43" s="27" t="s">
         <v>33</v>
@@ -28122,20 +28122,18 @@
         <v>43</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L43" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M43" s="36" t="s">
         <v>270</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="O43" s="30" t="s">
         <v>187</v>
       </c>
+      <c r="O43" s="30"/>
       <c r="P43" s="30"/>
       <c r="Q43" s="27"/>
       <c r="R43" s="27"/>
@@ -28147,24 +28145,24 @@
       <c r="X43" s="36"/>
       <c r="Y43" s="36"/>
     </row>
-    <row r="44" customFormat="1" ht="51" customHeight="1" spans="1:25">
+    <row r="44" s="24" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A44" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E44" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G44" s="27" t="s">
         <v>33</v>
@@ -28173,16 +28171,16 @@
         <v>268</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="J44" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L44" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M44" s="36" t="s">
         <v>270</v>
@@ -28191,9 +28189,9 @@
         <v>271</v>
       </c>
       <c r="O44" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="P44" s="36"/>
+        <v>187</v>
+      </c>
+      <c r="P44" s="30"/>
       <c r="Q44" s="27"/>
       <c r="R44" s="27"/>
       <c r="S44" s="36"/>
@@ -28209,19 +28207,19 @@
         <v>27</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E45" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G45" s="27" t="s">
         <v>33</v>
@@ -28230,16 +28228,16 @@
         <v>268</v>
       </c>
       <c r="I45" s="27" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="J45" s="27" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L45" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M45" s="36" t="s">
         <v>270</v>
@@ -28247,7 +28245,9 @@
       <c r="N45" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="O45" s="30"/>
+      <c r="O45" s="30" t="s">
+        <v>384</v>
+      </c>
       <c r="P45" s="36"/>
       <c r="Q45" s="27"/>
       <c r="R45" s="27"/>
@@ -28264,19 +28264,19 @@
         <v>27</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E46" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G46" s="27" t="s">
         <v>33</v>
@@ -28288,13 +28288,13 @@
         <v>42</v>
       </c>
       <c r="J46" s="27" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M46" s="36" t="s">
         <v>270</v>
@@ -28319,19 +28319,19 @@
         <v>27</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E47" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>374</v>
+        <v>193</v>
       </c>
       <c r="G47" s="27" t="s">
         <v>33</v>
@@ -28346,10 +28346,10 @@
         <v>43</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="L47" s="30" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="M47" s="36" t="s">
         <v>270</v>
@@ -28374,19 +28374,19 @@
         <v>27</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E48" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G48" s="27" t="s">
         <v>33</v>
@@ -28401,13 +28401,13 @@
         <v>43</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L48" s="30" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="M48" s="36" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="N48" s="27" t="s">
         <v>271</v>
@@ -28429,19 +28429,19 @@
         <v>27</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="G49" s="27" t="s">
         <v>33</v>
@@ -28456,16 +28456,16 @@
         <v>43</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L49" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M49" s="36" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="N49" s="27" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="O49" s="30"/>
       <c r="P49" s="36"/>
@@ -28484,19 +28484,19 @@
         <v>27</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E50" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G50" s="27" t="s">
         <v>33</v>
@@ -28511,20 +28511,18 @@
         <v>43</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L50" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M50" s="36" t="s">
         <v>270</v>
       </c>
       <c r="N50" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="O50" s="30" t="s">
         <v>208</v>
       </c>
+      <c r="O50" s="30"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
@@ -28541,19 +28539,19 @@
         <v>27</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E51" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G51" s="27" t="s">
         <v>33</v>
@@ -28562,16 +28560,16 @@
         <v>268</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="J51" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L51" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M51" s="36" t="s">
         <v>270</v>
@@ -28579,7 +28577,9 @@
       <c r="N51" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="O51" s="30"/>
+      <c r="O51" s="30" t="s">
+        <v>208</v>
+      </c>
       <c r="P51" s="36"/>
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
@@ -28596,19 +28596,19 @@
         <v>27</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E52" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G52" s="27" t="s">
         <v>33</v>
@@ -28617,16 +28617,16 @@
         <v>268</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="J52" s="27" t="s">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M52" s="36" t="s">
         <v>270</v>
@@ -28651,19 +28651,19 @@
         <v>27</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E53" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G53" s="27" t="s">
         <v>33</v>
@@ -28675,13 +28675,13 @@
         <v>42</v>
       </c>
       <c r="J53" s="27" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M53" s="36" t="s">
         <v>270</v>
@@ -28706,19 +28706,19 @@
         <v>27</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C54" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E54" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>374</v>
+        <v>193</v>
       </c>
       <c r="G54" s="27" t="s">
         <v>33</v>
@@ -28733,10 +28733,10 @@
         <v>43</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="L54" s="30" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="M54" s="36" t="s">
         <v>270</v>
@@ -28761,19 +28761,19 @@
         <v>27</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E55" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G55" s="27" t="s">
         <v>33</v>
@@ -28788,13 +28788,13 @@
         <v>43</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L55" s="30" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="M55" s="36" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="N55" s="27" t="s">
         <v>271</v>
@@ -28816,19 +28816,19 @@
         <v>27</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C56" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E56" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="G56" s="27" t="s">
         <v>33</v>
@@ -28843,16 +28843,16 @@
         <v>43</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L56" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M56" s="36" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="N56" s="27" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="O56" s="30"/>
       <c r="P56" s="36"/>
@@ -28871,19 +28871,19 @@
         <v>27</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E57" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G57" s="27" t="s">
         <v>33</v>
@@ -28898,20 +28898,18 @@
         <v>43</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L57" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M57" s="36" t="s">
         <v>270</v>
       </c>
       <c r="N57" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="O57" s="30" t="s">
         <v>223</v>
       </c>
+      <c r="O57" s="30"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="27"/>
       <c r="R57" s="27"/>
@@ -28928,19 +28926,19 @@
         <v>27</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E58" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="G58" s="27" t="s">
         <v>33</v>
@@ -28949,16 +28947,16 @@
         <v>268</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="J58" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L58" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M58" s="36" t="s">
         <v>270</v>
@@ -28966,7 +28964,9 @@
       <c r="N58" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="O58" s="30"/>
+      <c r="O58" s="30" t="s">
+        <v>223</v>
+      </c>
       <c r="P58" s="36"/>
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
@@ -28983,13 +28983,13 @@
         <v>27</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E59" s="27" t="s">
         <v>31</v>
@@ -29004,16 +29004,16 @@
         <v>268</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="J59" s="27" t="s">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L59" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M59" s="36" t="s">
         <v>270</v>
@@ -29038,19 +29038,19 @@
         <v>27</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C60" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E60" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="G60" s="27" t="s">
         <v>33</v>
@@ -29062,13 +29062,13 @@
         <v>42</v>
       </c>
       <c r="J60" s="27" t="s">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L60" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M60" s="36" t="s">
         <v>270</v>
@@ -29093,22 +29093,22 @@
         <v>27</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E61" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="H61" s="27" t="s">
         <v>268</v>
@@ -29120,10 +29120,10 @@
         <v>43</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="L61" s="30" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="M61" s="36" t="s">
         <v>270</v>
@@ -29148,13 +29148,13 @@
         <v>27</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C62" s="27" t="s">
         <v>265</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E62" s="27" t="s">
         <v>31</v>
@@ -29175,13 +29175,13 @@
         <v>43</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L62" s="30" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M62" s="36" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="N62" s="27" t="s">
         <v>271</v>
@@ -29203,22 +29203,22 @@
         <v>27</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E63" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="G63" s="27" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="H63" s="27" t="s">
         <v>268</v>
@@ -29230,20 +29230,18 @@
         <v>43</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L63" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M63" s="36" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="N63" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="O63" s="30" t="s">
-        <v>283</v>
-      </c>
+      <c r="O63" s="30"/>
       <c r="P63" s="36"/>
       <c r="Q63" s="27"/>
       <c r="R63" s="27"/>
@@ -29260,19 +29258,19 @@
         <v>27</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="G64" s="27" t="s">
         <v>33</v>
@@ -29281,16 +29279,16 @@
         <v>268</v>
       </c>
       <c r="I64" s="27" t="s">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="J64" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L64" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M64" s="36" t="s">
         <v>270</v>
@@ -29298,7 +29296,9 @@
       <c r="N64" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="O64" s="30"/>
+      <c r="O64" s="30" t="s">
+        <v>283</v>
+      </c>
       <c r="P64" s="36"/>
       <c r="Q64" s="27"/>
       <c r="R64" s="27"/>
@@ -29315,13 +29315,13 @@
         <v>27</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C65" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E65" s="27" t="s">
         <v>31</v>
@@ -29336,16 +29336,16 @@
         <v>268</v>
       </c>
       <c r="I65" s="27" t="s">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="J65" s="27" t="s">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="K65" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L65" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M65" s="36" t="s">
         <v>270</v>
@@ -29370,19 +29370,19 @@
         <v>27</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C66" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E66" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="G66" s="27" t="s">
         <v>33</v>
@@ -29394,13 +29394,13 @@
         <v>42</v>
       </c>
       <c r="J66" s="27" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="K66" s="27" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L66" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M66" s="36" t="s">
         <v>270</v>
@@ -29420,27 +29420,27 @@
       <c r="X66" s="36"/>
       <c r="Y66" s="36"/>
     </row>
-    <row r="67" s="24" customFormat="1" ht="51" customHeight="1" spans="1:25">
+    <row r="67" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A67" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E67" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="H67" s="27" t="s">
         <v>268</v>
@@ -29452,10 +29452,10 @@
         <v>43</v>
       </c>
       <c r="K67" s="27" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L67" s="30" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M67" s="36" t="s">
         <v>270</v>
@@ -29480,13 +29480,13 @@
         <v>27</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C68" s="27" t="s">
         <v>265</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E68" s="27" t="s">
         <v>31</v>
@@ -29507,13 +29507,13 @@
         <v>43</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L68" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="N68" s="27" t="s">
         <v>271</v>
@@ -29530,27 +29530,27 @@
       <c r="X68" s="36"/>
       <c r="Y68" s="36"/>
     </row>
-    <row r="69" customFormat="1" ht="51" customHeight="1" spans="1:25">
+    <row r="69" s="24" customFormat="1" ht="51" customHeight="1" spans="1:25">
       <c r="A69" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E69" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="H69" s="27" t="s">
         <v>268</v>
@@ -29562,20 +29562,18 @@
         <v>43</v>
       </c>
       <c r="K69" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L69" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M69" s="36" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="N69" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="O69" s="30" t="s">
-        <v>280</v>
-      </c>
+      <c r="O69" s="30"/>
       <c r="P69" s="36"/>
       <c r="Q69" s="27"/>
       <c r="R69" s="27"/>
@@ -29587,25 +29585,62 @@
       <c r="X69" s="36"/>
       <c r="Y69" s="36"/>
     </row>
-    <row r="70" customFormat="1" spans="1:18">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
+    <row r="70" customFormat="1" ht="51" customHeight="1" spans="1:25">
+      <c r="A70" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="I70" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J70" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K70" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="L70" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M70" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="N70" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="O70" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="36"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="36"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="36"/>
     </row>
     <row r="71" customFormat="1" spans="1:18">
       <c r="A71" s="25"/>
@@ -29617,13 +29652,6 @@
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
-      <c r="P71"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
@@ -29637,13 +29665,6 @@
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
@@ -29657,13 +29678,6 @@
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
-      <c r="P73"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
@@ -29677,13 +29691,6 @@
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
@@ -29697,13 +29704,6 @@
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
-      <c r="P75"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
@@ -29717,13 +29717,6 @@
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
@@ -29737,13 +29730,6 @@
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
@@ -29757,13 +29743,6 @@
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
@@ -29777,13 +29756,6 @@
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
-      <c r="P79"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
@@ -29797,13 +29769,6 @@
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
@@ -29817,13 +29782,6 @@
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="O81"/>
-      <c r="P81"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
@@ -29837,13 +29795,6 @@
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
@@ -29857,13 +29808,6 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="P83"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
@@ -29877,13 +29821,6 @@
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="O84"/>
-      <c r="P84"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
@@ -29897,13 +29834,6 @@
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="O85"/>
-      <c r="P85"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
@@ -29917,13 +29847,6 @@
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
@@ -29937,13 +29860,6 @@
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="O87"/>
-      <c r="P87"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
@@ -29957,13 +29873,6 @@
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
-      <c r="P88"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
@@ -29977,13 +29886,6 @@
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="O89"/>
-      <c r="P89"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
@@ -29997,13 +29899,6 @@
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-      <c r="P90"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
@@ -30017,13 +29912,6 @@
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="O91"/>
-      <c r="P91"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
@@ -30037,13 +29925,6 @@
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-      <c r="O92"/>
-      <c r="P92"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
@@ -30057,13 +29938,6 @@
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
-      <c r="O93"/>
-      <c r="P93"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
@@ -30077,13 +29951,6 @@
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="O94"/>
-      <c r="P94"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
@@ -30097,13 +29964,6 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95"/>
-      <c r="O95"/>
-      <c r="P95"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
@@ -30117,13 +29977,6 @@
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96"/>
-      <c r="O96"/>
-      <c r="P96"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
@@ -30137,13 +29990,6 @@
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
-      <c r="O97"/>
-      <c r="P97"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
@@ -30157,13 +30003,6 @@
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="L98"/>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="O98"/>
-      <c r="P98"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
@@ -30177,13 +30016,6 @@
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
-      <c r="J99"/>
-      <c r="K99"/>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
-      <c r="P99"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
@@ -30197,13 +30029,6 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
-      <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-      <c r="O100"/>
-      <c r="P100"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
@@ -30217,13 +30042,6 @@
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
-      <c r="J101"/>
-      <c r="K101"/>
-      <c r="L101"/>
-      <c r="M101"/>
-      <c r="N101"/>
-      <c r="O101"/>
-      <c r="P101"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
     </row>
@@ -30237,13 +30055,6 @@
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
-      <c r="J102"/>
-      <c r="K102"/>
-      <c r="L102"/>
-      <c r="M102"/>
-      <c r="N102"/>
-      <c r="O102"/>
-      <c r="P102"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
@@ -30257,13 +30068,6 @@
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
-      <c r="J103"/>
-      <c r="K103"/>
-      <c r="L103"/>
-      <c r="M103"/>
-      <c r="N103"/>
-      <c r="O103"/>
-      <c r="P103"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
@@ -30277,13 +30081,6 @@
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104"/>
-      <c r="M104"/>
-      <c r="N104"/>
-      <c r="O104"/>
-      <c r="P104"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
@@ -30297,13 +30094,6 @@
       <c r="G105" s="25"/>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
-      <c r="J105"/>
-      <c r="K105"/>
-      <c r="L105"/>
-      <c r="M105"/>
-      <c r="N105"/>
-      <c r="O105"/>
-      <c r="P105"/>
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
@@ -30317,13 +30107,6 @@
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
-      <c r="O106"/>
-      <c r="P106"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
     </row>
@@ -30337,13 +30120,6 @@
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
-      <c r="O107"/>
-      <c r="P107"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
     </row>
@@ -30357,13 +30133,6 @@
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
-      <c r="J108"/>
-      <c r="K108"/>
-      <c r="L108"/>
-      <c r="M108"/>
-      <c r="N108"/>
-      <c r="O108"/>
-      <c r="P108"/>
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
     </row>
@@ -30377,13 +30146,6 @@
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
-      <c r="J109"/>
-      <c r="K109"/>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
-      <c r="O109"/>
-      <c r="P109"/>
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
     </row>
@@ -30397,17 +30159,22 @@
       <c r="G110" s="25"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
-      <c r="J110"/>
-      <c r="K110"/>
-      <c r="L110"/>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
-      <c r="P110"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
     </row>
-    <row r="111" customFormat="1" ht="13.5"/>
+    <row r="111" customFormat="1" spans="1:18">
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+    </row>
     <row r="112" customFormat="1" ht="13.5"/>
     <row r="113" customFormat="1" ht="13.5"/>
     <row r="114" customFormat="1" ht="13.5"/>
@@ -46681,19 +46448,22 @@
     <row r="16382" customFormat="1" ht="13.5"/>
     <row r="16383" customFormat="1" ht="13.5"/>
     <row r="16384" customFormat="1" ht="13.5"/>
+    <row r="16385" customFormat="1" ht="13.5"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Y1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M31" r:id="rId1" display="http://m.uczzd.cn/ucnews/news?app=ucnews-iflow&amp;aid=11709685210548302577&amp;s=000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000" tooltip="http://m.uczzd.cn/ucnews/news?app=ucnews-iflow&amp;aid=11709685210548302577&amp;s=0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000"/>
-    <hyperlink ref="N32" r:id="rId2" display="http://39.107.66.190:9992/v2/api/confirm/callback?id=12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf1231"/>
-    <hyperlink ref="M23" r:id="rId3" display="http://m.uczzd.cn/ucnews/news?app=ucnews-iflow&amp;aid=1170968521054830257"/>
-    <hyperlink ref="M10" r:id="rId4" display="http://m.uczzd.cn/ucnews/news?app=ucnews-iflow&amp;aid=11709685210548302577&amp;s=00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000" tooltip="http://m.uczzd.cn/ucnews/news?app=ucnews-iflow&amp;aid=11709685210548302577&amp;s=0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000"/>
-    <hyperlink ref="N11" r:id="rId5" display="http://39.107.66.190:9992/v2/api/confirm/callback?id=12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf123" tooltip="http://39.107.66.190:9999/v2/api/confirm/callback?id=12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12"/>
-    <hyperlink ref="N22" r:id="rId6" display="http://39.107.66.190:9992/v2/api/confirm/callback" tooltip="http://39.107.66.190:9990/v2/api/confirm/callback"/>
+    <hyperlink ref="M32" r:id="rId1" display="http://m.uczzd.cn/ucnews/news?app=ucnews-iflow&amp;aid=11709685210548302577&amp;s=000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000" tooltip="http://m.uczzd.cn/ucnews/news?app=ucnews-iflow&amp;aid=11709685210548302577&amp;s=0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000"/>
+    <hyperlink ref="N33" r:id="rId2" display="http://39.107.66.190:9992/v2/api/confirm/callback?id=12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf1231"/>
+    <hyperlink ref="M24" r:id="rId3" display="http://m.uczzd.cn/ucnews/news?app=ucnews-iflow&amp;aid=1170968521054830257"/>
+    <hyperlink ref="M11" r:id="rId4" display="http://m.uczzd.cn/ucnews/news?app=ucnews-iflow&amp;aid=11709685210548302577&amp;s=00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000" tooltip="http://m.uczzd.cn/ucnews/news?app=ucnews-iflow&amp;aid=11709685210548302577&amp;s=0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000"/>
+    <hyperlink ref="N12" r:id="rId5" display="http://39.107.66.190:9992/v2/api/confirm/callback?id=12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf123" tooltip="http://39.107.66.190:9999/v2/api/confirm/callback?id=12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12345ascdf12"/>
+    <hyperlink ref="N23" r:id="rId6" display="http://39.107.66.190:9992/v2/api/confirm/callback" tooltip="http://39.107.66.190:9990/v2/api/confirm/callback"/>
     <hyperlink ref="M3" r:id="rId7" display="http://m.uczzd.cn/ucnews/news?app=ucnews-iflow&amp;aid=11709685210548302577"/>
     <hyperlink ref="N3" r:id="rId8" display="http://39.107.66.190:9992/v2/api/confirm/callback" tooltip="http://39.107.66.190:9999/v2/api/confirm/callback"/>
+    <hyperlink ref="M4" r:id="rId7" display="http://m.uczzd.cn/ucnews/news?app=ucnews-iflow&amp;aid=11709685210548302577"/>
+    <hyperlink ref="N4" r:id="rId8" display="http://39.107.66.190:9992/v2/api/confirm/callback" tooltip="http://39.107.66.190:9999/v2/api/confirm/callback"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -47747,7 +47517,7 @@
         <v>503</v>
       </c>
       <c r="BO2" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BP2" s="8" t="s">
         <v>578</v>
